--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738096.38</v>
+        <v>3032692.93</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69523.86</v>
+        <v>77761.36</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233923.56</v>
+        <v>220940.17</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116391.87</v>
+        <v>116141.58</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39833.17</v>
+        <v>39429.39</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208896.09</v>
+        <v>208757.42</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16534.15</v>
+        <v>15946.94</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30327.94</v>
+        <v>29954.71</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224082.49</v>
+        <v>221190.82</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109653.59</v>
+        <v>108310.08</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44521.1</v>
+        <v>44312.06</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88111</v>
+        <v>87865</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84120.14999999999</v>
+        <v>84300.17999999999</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59706.99</v>
+        <v>59668.32</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82656.94</v>
+        <v>123569.42</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85173.59</v>
+        <v>128912.6</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50222.19</v>
+        <v>50144.99</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74850.08</v>
+        <v>74932.75</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29948.08</v>
+        <v>29985.63</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26999.81</v>
+        <v>29066.25</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36412.76</v>
+        <v>36454.5</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26202.07</v>
+        <v>65735.42</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27333.44</v>
+        <v>27407.74</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9439.73</v>
+        <v>9471.559999999999</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>468.49</v>
+        <v>465.26</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6792.42</v>
+        <v>6787.77</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,147 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25494.68</v>
+        <v>25470.82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1574.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5267.65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21906.76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>26696.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5439.52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>951.84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>72638.36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3982.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>377415.97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>397126.03</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>604.08</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6787.77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>254475.93</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12604.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,258 +436,338 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3032692.93</v>
+        <v>79401.98</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79414.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77761.36</v>
+        <v>220610.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221482.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220940.17</v>
+        <v>33842.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33856.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116141.58</v>
+        <v>36468.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39693.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39429.39</v>
+        <v>102193.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102320.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208757.42</v>
+        <v>39630.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40361.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15946.94</v>
+        <v>931.05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>926.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29954.71</v>
+        <v>9435.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12914.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221190.82</v>
+        <v>4002.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4018.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108310.08</v>
+        <v>244918.33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>280311.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44312.06</v>
+        <v>396480.26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>395513.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87865</v>
+        <v>15483.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15851.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84300.17999999999</v>
+        <v>29896.36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30315.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59668.32</v>
+        <v>5272.83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5273.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>123569.42</v>
+        <v>22799.76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22206.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>128912.6</v>
+        <v>1574.62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1583.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50144.99</v>
+        <v>133114.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144020.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74932.75</v>
+        <v>133532.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>139005.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29985.63</v>
+        <v>221617.39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>229261.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29066.25</v>
+        <v>108512.71</v>
+      </c>
+      <c r="C21" t="n">
+        <v>110452.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36454.5</v>
+        <v>458.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>484.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65735.42</v>
+        <v>599.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>612.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27407.74</v>
+        <v>41621.19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41553.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9471.559999999999</v>
+        <v>88244.17999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88052.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>465.26</v>
+        <v>30563.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41973.02</v>
       </c>
     </row>
     <row r="27">
@@ -697,157 +777,205 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6787.77</v>
+        <v>6789.85</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9787.309999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25470.82</v>
+        <v>6789.85</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9787.309999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1574.88</v>
+        <v>17666.01</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17694.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5267.65</v>
+        <v>5372.62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5379.84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21906.76</v>
+        <v>25511.43</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25504.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26696.03</v>
+        <v>50292.22</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50379.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5439.52</v>
+        <v>74972.58</v>
+      </c>
+      <c r="C33" t="n">
+        <v>74989.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.84</v>
+        <v>84369.67</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84283.78999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72638.36</v>
+        <v>59505.31</v>
+      </c>
+      <c r="C35" t="n">
+        <v>59443.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3982.09</v>
+        <v>254863.43</v>
+      </c>
+      <c r="C36" t="n">
+        <v>253901.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377415.97</v>
+        <v>12548.64</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10703.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>397126.03</v>
+        <v>347793.75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>345735.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.08</v>
+        <v>29936.43</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29963.54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6787.77</v>
+        <v>72716.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>72719.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254475.93</v>
+        <v>78213.72</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80300.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12604.64</v>
+        <v>3050335.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3131734.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,534 +443,401 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79401.98</v>
-      </c>
-      <c r="C2" t="n">
-        <v>79414.77</v>
+        <v>3121947.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220610.6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>221482.79</v>
+        <v>82156.50999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33842.08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33856.63</v>
+        <v>79414.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36468.68</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39693.41</v>
+        <v>221482.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102193.73</v>
-      </c>
-      <c r="C6" t="n">
-        <v>102320.15</v>
+        <v>33856.63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39630.11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40361.7</v>
+        <v>39693.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>931.05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>926.46</v>
+        <v>102320.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9435.84</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12914.81</v>
+        <v>40361.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4002.64</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4018.68</v>
+        <v>926.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244918.33</v>
-      </c>
-      <c r="C11" t="n">
-        <v>280311.9</v>
+        <v>12914.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>396480.26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>395513.04</v>
+        <v>4018.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15483.16</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15851.39</v>
+        <v>280311.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29896.36</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30315.27</v>
+        <v>395513.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5272.83</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5273.87</v>
+        <v>15851.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22799.76</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22206.95</v>
+        <v>30315.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1574.62</v>
-      </c>
-      <c r="C17" t="n">
         <v>1583.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133114.63</v>
-      </c>
-      <c r="C18" t="n">
-        <v>144020.68</v>
+        <v>5273.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133532.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>139005.78</v>
+        <v>22206.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221617.39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>229261.36</v>
+        <v>144020.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108512.71</v>
-      </c>
-      <c r="C21" t="n">
-        <v>110452.16</v>
+        <v>139005.78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>458.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>484.7</v>
+        <v>229261.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>599.67</v>
-      </c>
-      <c r="C23" t="n">
-        <v>612.96</v>
+        <v>110452.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41621.19</v>
-      </c>
-      <c r="C24" t="n">
-        <v>41553.33</v>
+        <v>484.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88244.17999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>88052.3</v>
+        <v>612.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30563.51</v>
-      </c>
-      <c r="C26" t="n">
-        <v>41973.02</v>
+        <v>41553.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6789.85</v>
-      </c>
-      <c r="C27" t="n">
-        <v>9787.309999999999</v>
+        <v>88052.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6789.85</v>
-      </c>
-      <c r="C28" t="n">
-        <v>9787.309999999999</v>
+        <v>41973.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17666.01</v>
-      </c>
-      <c r="C29" t="n">
-        <v>17694.57</v>
+        <v>9787.309999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5372.62</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5379.84</v>
+        <v>17694.57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25511.43</v>
-      </c>
-      <c r="C31" t="n">
-        <v>25504.97</v>
+        <v>5379.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50292.22</v>
-      </c>
-      <c r="C32" t="n">
-        <v>50379.18</v>
+        <v>25504.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74972.58</v>
-      </c>
-      <c r="C33" t="n">
-        <v>74989.28</v>
+        <v>50379.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84369.67</v>
-      </c>
-      <c r="C34" t="n">
-        <v>84283.78999999999</v>
+        <v>74989.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>59505.31</v>
-      </c>
-      <c r="C35" t="n">
-        <v>59443.28</v>
+        <v>84283.78999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>254863.43</v>
-      </c>
-      <c r="C36" t="n">
-        <v>253901.02</v>
+        <v>59443.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12548.64</v>
-      </c>
-      <c r="C37" t="n">
-        <v>10703.51</v>
+        <v>253901.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347793.75</v>
-      </c>
-      <c r="C38" t="n">
-        <v>345735.97</v>
+        <v>10703.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29936.43</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29963.54</v>
+        <v>345735.97</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72716.8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>72719.12</v>
+        <v>29963.54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78213.72</v>
-      </c>
-      <c r="C41" t="n">
-        <v>80300.89</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3050335.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3131734.7</v>
+        <v>72719.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,405 +439,512 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121947.39</v>
+        <v>79414.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79431.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82156.50999999999</v>
+        <v>221482.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221434.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79414.77</v>
+        <v>33856.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33872.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221482.79</v>
+        <v>39693.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39548.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33856.63</v>
+        <v>102320.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102067.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39693.41</v>
+        <v>40361.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40122.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102320.15</v>
+        <v>926.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>919.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40361.7</v>
+        <v>12914.81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12915.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>926.46</v>
+        <v>4018.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4015.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12914.81</v>
+        <v>280311.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>280821.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4018.68</v>
+        <v>395513.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>397251.87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280311.9</v>
-      </c>
+        <v>15851.39</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395513.04</v>
-      </c>
+        <v>30315.27</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15851.39</v>
-      </c>
+        <v>1583.9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30315.27</v>
-      </c>
+        <v>5273.87</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1583.9</v>
-      </c>
+        <v>22206.95</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5273.87</v>
-      </c>
+        <v>144020.68</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22206.95</v>
-      </c>
+        <v>139005.78</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144020.68</v>
-      </c>
+        <v>229261.36</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>139005.78</v>
+        <v>110452.16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>113029.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>229261.36</v>
+        <v>484.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>544.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110452.16</v>
+        <v>612.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>613.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>484.7</v>
+        <v>41553.33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41353.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.96</v>
+        <v>88052.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88282.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41553.33</v>
+        <v>41973.02</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43881.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88052.3</v>
+        <v>9787.309999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9791.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41973.02</v>
+        <v>17694.57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17683.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9787.309999999999</v>
+        <v>5379.84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5349.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17694.57</v>
+        <v>25504.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25435.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5379.84</v>
-      </c>
+        <v>50379.18</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25504.97</v>
+        <v>74989.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>74852.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50379.18</v>
+        <v>84283.78999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84278.53999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74989.28</v>
+        <v>59443.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>59509.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84283.78999999999</v>
+        <v>253901.02</v>
+      </c>
+      <c r="C35" t="n">
+        <v>254941.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59443.28</v>
+        <v>10703.51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11401.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>253901.02</v>
+        <v>345735.97</v>
+      </c>
+      <c r="C37" t="n">
+        <v>294343.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10703.51</v>
+        <v>29963.54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29933.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>345735.97</v>
+        <v>72719.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>72630.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29963.54</v>
+        <v>82156.50999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>84146.75999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72719.12</v>
+        <v>3121947.39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2440256.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>79431.98</v>
       </c>
+      <c r="D2" t="n">
+        <v>91292.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>221434.51</v>
       </c>
+      <c r="D3" t="n">
+        <v>220975.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>33872.42</v>
       </c>
+      <c r="D4" t="n">
+        <v>33836.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>39548.23</v>
       </c>
+      <c r="D5" t="n">
+        <v>39592.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>102067.37</v>
       </c>
+      <c r="D6" t="n">
+        <v>102391.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>40122.64</v>
       </c>
+      <c r="D7" t="n">
+        <v>39902.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>919.9</v>
       </c>
+      <c r="D8" t="n">
+        <v>922.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>12915.65</v>
       </c>
+      <c r="D9" t="n">
+        <v>12909.58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>4015.65</v>
       </c>
+      <c r="D10" t="n">
+        <v>3986.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>280821.21</v>
       </c>
+      <c r="D11" t="n">
+        <v>329236.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>397251.87</v>
       </c>
+      <c r="D12" t="n">
+        <v>396406.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -598,6 +636,9 @@
         <v>15851.39</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>38879.91</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -609,6 +650,9 @@
         <v>30315.27</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>67350</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -620,6 +664,9 @@
         <v>1583.9</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1579.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -631,6 +678,9 @@
         <v>5273.87</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5277.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -642,6 +692,9 @@
         <v>22206.95</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>21866.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -653,6 +706,9 @@
         <v>144020.68</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>151258.59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -664,6 +720,9 @@
         <v>139005.78</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>154335.37</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -675,6 +734,9 @@
         <v>229261.36</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>232818.67</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -688,6 +750,9 @@
       <c r="C21" t="n">
         <v>113029.57</v>
       </c>
+      <c r="D21" t="n">
+        <v>118132.82</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -701,6 +766,9 @@
       <c r="C22" t="n">
         <v>544.77</v>
       </c>
+      <c r="D22" t="n">
+        <v>549.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -714,6 +782,9 @@
       <c r="C23" t="n">
         <v>613.24</v>
       </c>
+      <c r="D23" t="n">
+        <v>599.9400000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -727,6 +798,9 @@
       <c r="C24" t="n">
         <v>41353.04</v>
       </c>
+      <c r="D24" t="n">
+        <v>41577.84</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
       <c r="C25" t="n">
         <v>88282.33</v>
       </c>
+      <c r="D25" t="n">
+        <v>75486.55</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
       <c r="C26" t="n">
         <v>43881.66</v>
       </c>
+      <c r="D26" t="n">
+        <v>56319.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -766,6 +846,9 @@
       <c r="C27" t="n">
         <v>9791.33</v>
       </c>
+      <c r="D27" t="n">
+        <v>11183.54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -779,6 +862,9 @@
       <c r="C28" t="n">
         <v>17683.51</v>
       </c>
+      <c r="D28" t="n">
+        <v>17611.86</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -792,6 +878,9 @@
       <c r="C29" t="n">
         <v>5349.13</v>
       </c>
+      <c r="D29" t="n">
+        <v>5381.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -805,6 +894,9 @@
       <c r="C30" t="n">
         <v>25435.19</v>
       </c>
+      <c r="D30" t="n">
+        <v>25525.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -816,6 +908,9 @@
         <v>50379.18</v>
       </c>
       <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>86500.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -829,6 +924,9 @@
       <c r="C32" t="n">
         <v>74852.06</v>
       </c>
+      <c r="D32" t="n">
+        <v>75029.66</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -842,6 +940,9 @@
       <c r="C33" t="n">
         <v>84278.53999999999</v>
       </c>
+      <c r="D33" t="n">
+        <v>84412.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -855,6 +956,9 @@
       <c r="C34" t="n">
         <v>59509.98</v>
       </c>
+      <c r="D34" t="n">
+        <v>77366.86</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -868,6 +972,9 @@
       <c r="C35" t="n">
         <v>254941.33</v>
       </c>
+      <c r="D35" t="n">
+        <v>255328.94</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -881,6 +988,9 @@
       <c r="C36" t="n">
         <v>11401.7</v>
       </c>
+      <c r="D36" t="n">
+        <v>11742.18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -894,6 +1004,9 @@
       <c r="C37" t="n">
         <v>294343.25</v>
       </c>
+      <c r="D37" t="n">
+        <v>279969.96</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -907,6 +1020,9 @@
       <c r="C38" t="n">
         <v>29933.52</v>
       </c>
+      <c r="D38" t="n">
+        <v>29998.13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -920,6 +1036,9 @@
       <c r="C39" t="n">
         <v>72630.53</v>
       </c>
+      <c r="D39" t="n">
+        <v>72674.14999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -933,6 +1052,9 @@
       <c r="C40" t="n">
         <v>84146.75999999999</v>
       </c>
+      <c r="D40" t="n">
+        <v>86058.12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -945,6 +1067,9 @@
       </c>
       <c r="C41" t="n">
         <v>2440256.11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3270208.42</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>91292.33</v>
       </c>
+      <c r="E2" t="n">
+        <v>91114.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>220975.3</v>
       </c>
+      <c r="E3" t="n">
+        <v>232291.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>33836.25</v>
       </c>
+      <c r="E4" t="n">
+        <v>33868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>39592.7</v>
       </c>
+      <c r="E5" t="n">
+        <v>39678.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>102391.4</v>
       </c>
+      <c r="E6" t="n">
+        <v>102396.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>39902.99</v>
       </c>
+      <c r="E7" t="n">
+        <v>39865.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>922.3</v>
       </c>
+      <c r="E8" t="n">
+        <v>936.3099999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>12909.58</v>
       </c>
+      <c r="E9" t="n">
+        <v>12927.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>3986.27</v>
       </c>
+      <c r="E10" t="n">
+        <v>4012.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>329236.66</v>
       </c>
+      <c r="E11" t="n">
+        <v>393334.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -624,6 +659,9 @@
       </c>
       <c r="D12" t="n">
         <v>396406.47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>397568.75</v>
       </c>
     </row>
     <row r="13">
@@ -639,6 +677,9 @@
       <c r="D13" t="n">
         <v>38879.91</v>
       </c>
+      <c r="E13" t="n">
+        <v>39117.91</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -653,6 +694,9 @@
       <c r="D14" t="n">
         <v>67350</v>
       </c>
+      <c r="E14" t="n">
+        <v>67383.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -667,6 +711,9 @@
       <c r="D15" t="n">
         <v>1579.26</v>
       </c>
+      <c r="E15" t="n">
+        <v>1579.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -681,6 +728,9 @@
       <c r="D16" t="n">
         <v>5277.33</v>
       </c>
+      <c r="E16" t="n">
+        <v>5274.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -695,6 +745,9 @@
       <c r="D17" t="n">
         <v>21866.9</v>
       </c>
+      <c r="E17" t="n">
+        <v>21478.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -709,6 +762,9 @@
       <c r="D18" t="n">
         <v>151258.59</v>
       </c>
+      <c r="E18" t="n">
+        <v>162193.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -723,6 +779,9 @@
       <c r="D19" t="n">
         <v>154335.37</v>
       </c>
+      <c r="E19" t="n">
+        <v>156410.53</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -737,6 +796,9 @@
       <c r="D20" t="n">
         <v>232818.67</v>
       </c>
+      <c r="E20" t="n">
+        <v>269022.46</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -753,6 +815,9 @@
       <c r="D21" t="n">
         <v>118132.82</v>
       </c>
+      <c r="E21" t="n">
+        <v>118258.57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -769,6 +834,9 @@
       <c r="D22" t="n">
         <v>549.12</v>
       </c>
+      <c r="E22" t="n">
+        <v>6457.04</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -785,6 +853,9 @@
       <c r="D23" t="n">
         <v>599.9400000000001</v>
       </c>
+      <c r="E23" t="n">
+        <v>596.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -801,6 +872,9 @@
       <c r="D24" t="n">
         <v>41577.84</v>
       </c>
+      <c r="E24" t="n">
+        <v>41281.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +891,9 @@
       <c r="D25" t="n">
         <v>75486.55</v>
       </c>
+      <c r="E25" t="n">
+        <v>75429.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -833,6 +910,9 @@
       <c r="D26" t="n">
         <v>56319.48</v>
       </c>
+      <c r="E26" t="n">
+        <v>59004.91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -849,6 +929,9 @@
       <c r="D27" t="n">
         <v>11183.54</v>
       </c>
+      <c r="E27" t="n">
+        <v>11189.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -865,6 +948,9 @@
       <c r="D28" t="n">
         <v>17611.86</v>
       </c>
+      <c r="E28" t="n">
+        <v>21963.18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -881,6 +967,9 @@
       <c r="D29" t="n">
         <v>5381.18</v>
       </c>
+      <c r="E29" t="n">
+        <v>15500.11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -896,6 +985,9 @@
       </c>
       <c r="D30" t="n">
         <v>25525.43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25447.85</v>
       </c>
     </row>
     <row r="31">
@@ -911,6 +1003,9 @@
       <c r="D31" t="n">
         <v>86500.06</v>
       </c>
+      <c r="E31" t="n">
+        <v>86505.55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -927,6 +1022,9 @@
       <c r="D32" t="n">
         <v>75029.66</v>
       </c>
+      <c r="E32" t="n">
+        <v>75145.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -943,6 +1041,9 @@
       <c r="D33" t="n">
         <v>84412.44</v>
       </c>
+      <c r="E33" t="n">
+        <v>84100.37</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -959,6 +1060,9 @@
       <c r="D34" t="n">
         <v>77366.86</v>
       </c>
+      <c r="E34" t="n">
+        <v>75822.75999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -975,6 +1079,9 @@
       <c r="D35" t="n">
         <v>255328.94</v>
       </c>
+      <c r="E35" t="n">
+        <v>254974.94</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -991,6 +1098,7 @@
       <c r="D36" t="n">
         <v>11742.18</v>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1007,6 +1115,9 @@
       <c r="D37" t="n">
         <v>279969.96</v>
       </c>
+      <c r="E37" t="n">
+        <v>258444.19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1023,6 +1134,9 @@
       <c r="D38" t="n">
         <v>29998.13</v>
       </c>
+      <c r="E38" t="n">
+        <v>30052.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1039,6 +1153,7 @@
       <c r="D39" t="n">
         <v>72674.14999999999</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1055,6 +1170,9 @@
       <c r="D40" t="n">
         <v>86058.12</v>
       </c>
+      <c r="E40" t="n">
+        <v>91961.84</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1070,6 +1188,9 @@
       </c>
       <c r="D41" t="n">
         <v>3270208.42</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3310626.35</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>91114.5</v>
       </c>
+      <c r="F2" t="n">
+        <v>90921.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>232291.21</v>
       </c>
+      <c r="F3" t="n">
+        <v>232861.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>33868</v>
       </c>
+      <c r="F4" t="n">
+        <v>33827.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>39678.97</v>
       </c>
+      <c r="F5" t="n">
+        <v>39552.78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>102396.12</v>
       </c>
+      <c r="F6" t="n">
+        <v>102411.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>39865.47</v>
       </c>
+      <c r="F7" t="n">
+        <v>40163.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>936.3099999999999</v>
       </c>
+      <c r="F8" t="n">
+        <v>950.3099999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>12927.23</v>
       </c>
+      <c r="F9" t="n">
+        <v>12941.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>4012.18</v>
       </c>
+      <c r="F10" t="n">
+        <v>4006.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>393334.32</v>
       </c>
+      <c r="F11" t="n">
+        <v>432647.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -662,6 +697,9 @@
       </c>
       <c r="E12" t="n">
         <v>397568.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>397578.58</v>
       </c>
     </row>
     <row r="13">
@@ -680,6 +718,9 @@
       <c r="E13" t="n">
         <v>39117.91</v>
       </c>
+      <c r="F13" t="n">
+        <v>39845.74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -697,6 +738,9 @@
       <c r="E14" t="n">
         <v>67383.12</v>
       </c>
+      <c r="F14" t="n">
+        <v>67252.46000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>1579.25</v>
       </c>
+      <c r="F15" t="n">
+        <v>1579.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,6 +778,9 @@
       <c r="E16" t="n">
         <v>5274.79</v>
       </c>
+      <c r="F16" t="n">
+        <v>5273.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -748,6 +798,9 @@
       <c r="E17" t="n">
         <v>21478.6</v>
       </c>
+      <c r="F17" t="n">
+        <v>21302.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -765,6 +818,9 @@
       <c r="E18" t="n">
         <v>162193.04</v>
       </c>
+      <c r="F18" t="n">
+        <v>171839.69</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -782,6 +838,9 @@
       <c r="E19" t="n">
         <v>156410.53</v>
       </c>
+      <c r="F19" t="n">
+        <v>158183.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -799,6 +858,9 @@
       <c r="E20" t="n">
         <v>269022.46</v>
       </c>
+      <c r="F20" t="n">
+        <v>267160.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -818,6 +880,9 @@
       <c r="E21" t="n">
         <v>118258.57</v>
       </c>
+      <c r="F21" t="n">
+        <v>118030.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -837,6 +902,9 @@
       <c r="E22" t="n">
         <v>6457.04</v>
       </c>
+      <c r="F22" t="n">
+        <v>6520.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -856,6 +924,9 @@
       <c r="E23" t="n">
         <v>596.16</v>
       </c>
+      <c r="F23" t="n">
+        <v>603.88</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -875,6 +946,9 @@
       <c r="E24" t="n">
         <v>41281.3</v>
       </c>
+      <c r="F24" t="n">
+        <v>41574.76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -894,6 +968,9 @@
       <c r="E25" t="n">
         <v>75429.5</v>
       </c>
+      <c r="F25" t="n">
+        <v>75383.16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +990,9 @@
       <c r="E26" t="n">
         <v>59004.91</v>
       </c>
+      <c r="F26" t="n">
+        <v>58551.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -932,6 +1012,9 @@
       <c r="E27" t="n">
         <v>11189.12</v>
       </c>
+      <c r="F27" t="n">
+        <v>11176.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -951,6 +1034,9 @@
       <c r="E28" t="n">
         <v>21963.18</v>
       </c>
+      <c r="F28" t="n">
+        <v>22081.87</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -970,6 +1056,9 @@
       <c r="E29" t="n">
         <v>15500.11</v>
       </c>
+      <c r="F29" t="n">
+        <v>15416.97</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -988,6 +1077,9 @@
       </c>
       <c r="E30" t="n">
         <v>25447.85</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21924.02</v>
       </c>
     </row>
     <row r="31">
@@ -1006,6 +1098,9 @@
       <c r="E31" t="n">
         <v>86505.55</v>
       </c>
+      <c r="F31" t="n">
+        <v>86477.11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1025,6 +1120,9 @@
       <c r="E32" t="n">
         <v>75145.8</v>
       </c>
+      <c r="F32" t="n">
+        <v>74839.10000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1044,6 +1142,9 @@
       <c r="E33" t="n">
         <v>84100.37</v>
       </c>
+      <c r="F33" t="n">
+        <v>84167.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1063,6 +1164,9 @@
       <c r="E34" t="n">
         <v>75822.75999999999</v>
       </c>
+      <c r="F34" t="n">
+        <v>82088.21000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1082,6 +1186,9 @@
       <c r="E35" t="n">
         <v>254974.94</v>
       </c>
+      <c r="F35" t="n">
+        <v>254114.39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1099,6 +1206,7 @@
         <v>11742.18</v>
       </c>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1118,6 +1226,9 @@
       <c r="E37" t="n">
         <v>258444.19</v>
       </c>
+      <c r="F37" t="n">
+        <v>293400.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1137,6 +1248,9 @@
       <c r="E38" t="n">
         <v>30052.24</v>
       </c>
+      <c r="F38" t="n">
+        <v>30018</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1154,6 +1268,7 @@
         <v>72674.14999999999</v>
       </c>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1173,6 +1288,9 @@
       <c r="E40" t="n">
         <v>91961.84</v>
       </c>
+      <c r="F40" t="n">
+        <v>94351.85000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1191,6 +1309,9 @@
       </c>
       <c r="E41" t="n">
         <v>3310626.35</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3396666.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>90921.12</v>
       </c>
+      <c r="G2" t="n">
+        <v>91092.96000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>232861.83</v>
       </c>
+      <c r="G3" t="n">
+        <v>232381.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>33827.49</v>
       </c>
+      <c r="G4" t="n">
+        <v>33964.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>39552.78</v>
       </c>
+      <c r="G5" t="n">
+        <v>39627.94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>102411.48</v>
       </c>
+      <c r="G6" t="n">
+        <v>102400.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>40163.99</v>
       </c>
+      <c r="G7" t="n">
+        <v>40101.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>950.3099999999999</v>
       </c>
+      <c r="G8" t="n">
+        <v>951.46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>12941.05</v>
       </c>
+      <c r="G9" t="n">
+        <v>12922.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>4006.16</v>
       </c>
+      <c r="G10" t="n">
+        <v>3983.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>432647.09</v>
       </c>
+      <c r="G11" t="n">
+        <v>457099.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -700,6 +735,9 @@
       </c>
       <c r="F12" t="n">
         <v>397578.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>397257.51</v>
       </c>
     </row>
     <row r="13">
@@ -721,6 +759,9 @@
       <c r="F13" t="n">
         <v>39845.74</v>
       </c>
+      <c r="G13" t="n">
+        <v>39243.18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -741,6 +782,9 @@
       <c r="F14" t="n">
         <v>67252.46000000001</v>
       </c>
+      <c r="G14" t="n">
+        <v>67150.17999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>1579.8</v>
       </c>
+      <c r="G15" t="n">
+        <v>1580.41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,6 +828,9 @@
       <c r="F16" t="n">
         <v>5273.01</v>
       </c>
+      <c r="G16" t="n">
+        <v>5269.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -801,6 +851,9 @@
       <c r="F17" t="n">
         <v>21302.22</v>
       </c>
+      <c r="G17" t="n">
+        <v>21597.87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -821,6 +874,9 @@
       <c r="F18" t="n">
         <v>171839.69</v>
       </c>
+      <c r="G18" t="n">
+        <v>171646.89</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -841,6 +897,9 @@
       <c r="F19" t="n">
         <v>158183.15</v>
       </c>
+      <c r="G19" t="n">
+        <v>156201.32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -861,6 +920,9 @@
       <c r="F20" t="n">
         <v>267160.82</v>
       </c>
+      <c r="G20" t="n">
+        <v>268101.87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -883,6 +945,9 @@
       <c r="F21" t="n">
         <v>118030.6</v>
       </c>
+      <c r="G21" t="n">
+        <v>117752.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -905,6 +970,9 @@
       <c r="F22" t="n">
         <v>6520.15</v>
       </c>
+      <c r="G22" t="n">
+        <v>6514.86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -927,6 +995,9 @@
       <c r="F23" t="n">
         <v>603.88</v>
       </c>
+      <c r="G23" t="n">
+        <v>594.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -949,6 +1020,9 @@
       <c r="F24" t="n">
         <v>41574.76</v>
       </c>
+      <c r="G24" t="n">
+        <v>41418.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1045,9 @@
       <c r="F25" t="n">
         <v>75383.16</v>
       </c>
+      <c r="G25" t="n">
+        <v>75176.41</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -993,6 +1070,9 @@
       <c r="F26" t="n">
         <v>58551.15</v>
       </c>
+      <c r="G26" t="n">
+        <v>58492.03</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1015,6 +1095,9 @@
       <c r="F27" t="n">
         <v>11176.28</v>
       </c>
+      <c r="G27" t="n">
+        <v>11182.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1037,6 +1120,9 @@
       <c r="F28" t="n">
         <v>22081.87</v>
       </c>
+      <c r="G28" t="n">
+        <v>22045.44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1059,6 +1145,9 @@
       <c r="F29" t="n">
         <v>15416.97</v>
       </c>
+      <c r="G29" t="n">
+        <v>15450.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1080,6 +1169,9 @@
       </c>
       <c r="F30" t="n">
         <v>21924.02</v>
+      </c>
+      <c r="G30" t="n">
+        <v>21982.46</v>
       </c>
     </row>
     <row r="31">
@@ -1101,6 +1193,9 @@
       <c r="F31" t="n">
         <v>86477.11</v>
       </c>
+      <c r="G31" t="n">
+        <v>86426.50999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1123,6 +1218,9 @@
       <c r="F32" t="n">
         <v>74839.10000000001</v>
       </c>
+      <c r="G32" t="n">
+        <v>124929.66</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1145,6 +1243,9 @@
       <c r="F33" t="n">
         <v>84167.75</v>
       </c>
+      <c r="G33" t="n">
+        <v>84267.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1167,6 +1268,9 @@
       <c r="F34" t="n">
         <v>82088.21000000001</v>
       </c>
+      <c r="G34" t="n">
+        <v>83016.49000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1189,6 +1293,9 @@
       <c r="F35" t="n">
         <v>254114.39</v>
       </c>
+      <c r="G35" t="n">
+        <v>255981.68</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1207,6 +1314,7 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1229,6 +1337,9 @@
       <c r="F37" t="n">
         <v>293400.3</v>
       </c>
+      <c r="G37" t="n">
+        <v>290176.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1251,6 +1362,9 @@
       <c r="F38" t="n">
         <v>30018</v>
       </c>
+      <c r="G38" t="n">
+        <v>29955.01</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1269,6 +1383,7 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1291,6 +1406,9 @@
       <c r="F40" t="n">
         <v>94351.85000000001</v>
       </c>
+      <c r="G40" t="n">
+        <v>96331.53</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1312,6 +1430,9 @@
       </c>
       <c r="F41" t="n">
         <v>3396666.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3467935.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>91092.96000000001</v>
       </c>
+      <c r="H2" t="n">
+        <v>90875.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>232381.31</v>
       </c>
+      <c r="H3" t="n">
+        <v>214446.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>33964.16</v>
       </c>
+      <c r="H4" t="n">
+        <v>33958.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>39627.94</v>
       </c>
+      <c r="H5" t="n">
+        <v>39658.65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>102400.23</v>
       </c>
+      <c r="H6" t="n">
+        <v>102224.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>40101.38</v>
       </c>
+      <c r="H7" t="n">
+        <v>39422.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>951.46</v>
       </c>
+      <c r="H8" t="n">
+        <v>913.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>12922.59</v>
       </c>
+      <c r="H9" t="n">
+        <v>12942.69</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>3983.45</v>
       </c>
+      <c r="H10" t="n">
+        <v>4004.94</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>457099.51</v>
       </c>
+      <c r="H11" t="n">
+        <v>457842.23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,6 +773,9 @@
       </c>
       <c r="G12" t="n">
         <v>397257.51</v>
+      </c>
+      <c r="H12" t="n">
+        <v>395953.91</v>
       </c>
     </row>
     <row r="13">
@@ -762,6 +800,9 @@
       <c r="G13" t="n">
         <v>39243.18</v>
       </c>
+      <c r="H13" t="n">
+        <v>38768.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -785,6 +826,9 @@
       <c r="G14" t="n">
         <v>67150.17999999999</v>
       </c>
+      <c r="H14" t="n">
+        <v>67264.96000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>1580.41</v>
       </c>
+      <c r="H15" t="n">
+        <v>1577.76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -831,6 +878,9 @@
       <c r="G16" t="n">
         <v>5269.08</v>
       </c>
+      <c r="H16" t="n">
+        <v>5268.92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -854,6 +904,9 @@
       <c r="G17" t="n">
         <v>21597.87</v>
       </c>
+      <c r="H17" t="n">
+        <v>21994.46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -877,6 +930,9 @@
       <c r="G18" t="n">
         <v>171646.89</v>
       </c>
+      <c r="H18" t="n">
+        <v>171987.55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -900,6 +956,9 @@
       <c r="G19" t="n">
         <v>156201.32</v>
       </c>
+      <c r="H19" t="n">
+        <v>156021.26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -923,6 +982,9 @@
       <c r="G20" t="n">
         <v>268101.87</v>
       </c>
+      <c r="H20" t="n">
+        <v>267342.63</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -948,6 +1010,9 @@
       <c r="G21" t="n">
         <v>117752.13</v>
       </c>
+      <c r="H21" t="n">
+        <v>117996.79</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -973,6 +1038,9 @@
       <c r="G22" t="n">
         <v>6514.86</v>
       </c>
+      <c r="H22" t="n">
+        <v>6546.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -998,6 +1066,9 @@
       <c r="G23" t="n">
         <v>594.25</v>
       </c>
+      <c r="H23" t="n">
+        <v>611.38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1023,6 +1094,9 @@
       <c r="G24" t="n">
         <v>41418.37</v>
       </c>
+      <c r="H24" t="n">
+        <v>48464.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1048,6 +1122,9 @@
       <c r="G25" t="n">
         <v>75176.41</v>
       </c>
+      <c r="H25" t="n">
+        <v>75187.83</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1150,9 @@
       <c r="G26" t="n">
         <v>58492.03</v>
       </c>
+      <c r="H26" t="n">
+        <v>69396.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1098,6 +1178,9 @@
       <c r="G27" t="n">
         <v>11182.01</v>
       </c>
+      <c r="H27" t="n">
+        <v>11178.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1123,6 +1206,9 @@
       <c r="G28" t="n">
         <v>22045.44</v>
       </c>
+      <c r="H28" t="n">
+        <v>22010.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1148,6 +1234,9 @@
       <c r="G29" t="n">
         <v>15450.3</v>
       </c>
+      <c r="H29" t="n">
+        <v>15471.55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1172,6 +1261,9 @@
       </c>
       <c r="G30" t="n">
         <v>21982.46</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21974.71</v>
       </c>
     </row>
     <row r="31">
@@ -1196,6 +1288,9 @@
       <c r="G31" t="n">
         <v>86426.50999999999</v>
       </c>
+      <c r="H31" t="n">
+        <v>86338.33</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1221,6 +1316,9 @@
       <c r="G32" t="n">
         <v>124929.66</v>
       </c>
+      <c r="H32" t="n">
+        <v>124979.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1246,6 +1344,9 @@
       <c r="G33" t="n">
         <v>84267.87</v>
       </c>
+      <c r="H33" t="n">
+        <v>84383.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1271,6 +1372,9 @@
       <c r="G34" t="n">
         <v>83016.49000000001</v>
       </c>
+      <c r="H34" t="n">
+        <v>83384.00999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1295,6 +1399,9 @@
       </c>
       <c r="G35" t="n">
         <v>255981.68</v>
+      </c>
+      <c r="H35" t="n">
+        <v>254640.21</v>
       </c>
     </row>
     <row r="36">
@@ -1315,6 +1422,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1340,6 +1448,9 @@
       <c r="G37" t="n">
         <v>290176.4</v>
       </c>
+      <c r="H37" t="n">
+        <v>302740.14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1364,6 +1475,9 @@
       </c>
       <c r="G38" t="n">
         <v>29955.01</v>
+      </c>
+      <c r="H38" t="n">
+        <v>29937.66</v>
       </c>
     </row>
     <row r="39">
@@ -1384,6 +1498,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1409,6 +1524,9 @@
       <c r="G40" t="n">
         <v>96331.53</v>
       </c>
+      <c r="H40" t="n">
+        <v>96603.07000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1433,6 +1551,9 @@
       </c>
       <c r="G41" t="n">
         <v>3467935.18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3477710.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>90875.52</v>
       </c>
+      <c r="I2" t="n">
+        <v>67067.96000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>214446.05</v>
       </c>
+      <c r="I3" t="n">
+        <v>215112.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>33958.25</v>
       </c>
+      <c r="I4" t="n">
+        <v>33883.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>39658.65</v>
       </c>
+      <c r="I5" t="n">
+        <v>39513.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>102224.83</v>
       </c>
+      <c r="I6" t="n">
+        <v>102123.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>39422.84</v>
       </c>
+      <c r="I7" t="n">
+        <v>40008.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>913.28</v>
       </c>
+      <c r="I8" t="n">
+        <v>922.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>12942.69</v>
       </c>
+      <c r="I9" t="n">
+        <v>12949.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>4004.94</v>
       </c>
+      <c r="I10" t="n">
+        <v>3988.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>457842.23</v>
       </c>
+      <c r="I11" t="n">
+        <v>457345.76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -776,6 +811,9 @@
       </c>
       <c r="H12" t="n">
         <v>395953.91</v>
+      </c>
+      <c r="I12" t="n">
+        <v>396505.51</v>
       </c>
     </row>
     <row r="13">
@@ -803,6 +841,9 @@
       <c r="H13" t="n">
         <v>38768.45</v>
       </c>
+      <c r="I13" t="n">
+        <v>39459.84</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -829,6 +870,9 @@
       <c r="H14" t="n">
         <v>67264.96000000001</v>
       </c>
+      <c r="I14" t="n">
+        <v>67061.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>1577.76</v>
       </c>
+      <c r="I15" t="n">
+        <v>1578.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -881,6 +928,9 @@
       <c r="H16" t="n">
         <v>5268.92</v>
       </c>
+      <c r="I16" t="n">
+        <v>5279.66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -907,6 +957,9 @@
       <c r="H17" t="n">
         <v>21994.46</v>
       </c>
+      <c r="I17" t="n">
+        <v>21206.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -933,6 +986,9 @@
       <c r="H18" t="n">
         <v>171987.55</v>
       </c>
+      <c r="I18" t="n">
+        <v>164504.71</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -959,6 +1015,9 @@
       <c r="H19" t="n">
         <v>156021.26</v>
       </c>
+      <c r="I19" t="n">
+        <v>138099.91</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -985,6 +1044,9 @@
       <c r="H20" t="n">
         <v>267342.63</v>
       </c>
+      <c r="I20" t="n">
+        <v>264658.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1013,6 +1075,9 @@
       <c r="H21" t="n">
         <v>117996.79</v>
       </c>
+      <c r="I21" t="n">
+        <v>118037.94</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1041,6 +1106,9 @@
       <c r="H22" t="n">
         <v>6546.7</v>
       </c>
+      <c r="I22" t="n">
+        <v>6544.47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1069,6 +1137,9 @@
       <c r="H23" t="n">
         <v>611.38</v>
       </c>
+      <c r="I23" t="n">
+        <v>601.49</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1097,6 +1168,9 @@
       <c r="H24" t="n">
         <v>48464.38</v>
       </c>
+      <c r="I24" t="n">
+        <v>43430.32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1125,6 +1199,9 @@
       <c r="H25" t="n">
         <v>75187.83</v>
       </c>
+      <c r="I25" t="n">
+        <v>75090.48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1153,6 +1230,9 @@
       <c r="H26" t="n">
         <v>69396.14</v>
       </c>
+      <c r="I26" t="n">
+        <v>69586.34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1181,6 +1261,9 @@
       <c r="H27" t="n">
         <v>11178.14</v>
       </c>
+      <c r="I27" t="n">
+        <v>11176.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1209,6 +1292,9 @@
       <c r="H28" t="n">
         <v>22010.14</v>
       </c>
+      <c r="I28" t="n">
+        <v>21998.43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1237,6 +1323,9 @@
       <c r="H29" t="n">
         <v>15471.55</v>
       </c>
+      <c r="I29" t="n">
+        <v>15452.19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1264,6 +1353,9 @@
       </c>
       <c r="H30" t="n">
         <v>21974.71</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21968.94</v>
       </c>
     </row>
     <row r="31">
@@ -1291,6 +1383,9 @@
       <c r="H31" t="n">
         <v>86338.33</v>
       </c>
+      <c r="I31" t="n">
+        <v>86364.94</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1319,6 +1414,9 @@
       <c r="H32" t="n">
         <v>124979.29</v>
       </c>
+      <c r="I32" t="n">
+        <v>125221</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1347,6 +1445,9 @@
       <c r="H33" t="n">
         <v>84383.97</v>
       </c>
+      <c r="I33" t="n">
+        <v>84071.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1375,6 +1476,9 @@
       <c r="H34" t="n">
         <v>83384.00999999999</v>
       </c>
+      <c r="I34" t="n">
+        <v>83357.37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1402,6 +1506,9 @@
       </c>
       <c r="H35" t="n">
         <v>254640.21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>253175.24</v>
       </c>
     </row>
     <row r="36">
@@ -1423,6 +1530,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1451,6 +1559,9 @@
       <c r="H37" t="n">
         <v>302740.14</v>
       </c>
+      <c r="I37" t="n">
+        <v>317541.71</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1478,6 +1589,9 @@
       </c>
       <c r="H38" t="n">
         <v>29937.66</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29976.35</v>
       </c>
     </row>
     <row r="39">
@@ -1499,6 +1613,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1527,6 +1642,9 @@
       <c r="H40" t="n">
         <v>96603.07000000001</v>
       </c>
+      <c r="I40" t="n">
+        <v>95412.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1554,6 +1672,9 @@
       </c>
       <c r="H41" t="n">
         <v>3477710.55</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3434866.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>67067.96000000001</v>
       </c>
+      <c r="J2" t="n">
+        <v>67088.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>215112.55</v>
       </c>
+      <c r="J3" t="n">
+        <v>215067.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>33883.97</v>
       </c>
+      <c r="J4" t="n">
+        <v>33838.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>39513.34</v>
       </c>
+      <c r="J5" t="n">
+        <v>39662.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>102123.37</v>
       </c>
+      <c r="J6" t="n">
+        <v>102291.54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>40008.13</v>
       </c>
+      <c r="J7" t="n">
+        <v>40201.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>922.85</v>
       </c>
+      <c r="J8" t="n">
+        <v>964.46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>12949.95</v>
       </c>
+      <c r="J9" t="n">
+        <v>12930.51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>3988.47</v>
       </c>
+      <c r="J10" t="n">
+        <v>3989.34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>457345.76</v>
       </c>
+      <c r="J11" t="n">
+        <v>436206.33</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -814,6 +849,9 @@
       </c>
       <c r="I12" t="n">
         <v>396505.51</v>
+      </c>
+      <c r="J12" t="n">
+        <v>396113.74</v>
       </c>
     </row>
     <row r="13">
@@ -844,6 +882,9 @@
       <c r="I13" t="n">
         <v>39459.84</v>
       </c>
+      <c r="J13" t="n">
+        <v>39690.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -873,6 +914,9 @@
       <c r="I14" t="n">
         <v>67061.73</v>
       </c>
+      <c r="J14" t="n">
+        <v>67260.89</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>1578.6</v>
       </c>
+      <c r="J15" t="n">
+        <v>1577.54</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +978,9 @@
       <c r="I16" t="n">
         <v>5279.66</v>
       </c>
+      <c r="J16" t="n">
+        <v>5271.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -960,6 +1010,9 @@
       <c r="I17" t="n">
         <v>21206.06</v>
       </c>
+      <c r="J17" t="n">
+        <v>22362.49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -989,6 +1042,9 @@
       <c r="I18" t="n">
         <v>164504.71</v>
       </c>
+      <c r="J18" t="n">
+        <v>146944.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1018,6 +1074,9 @@
       <c r="I19" t="n">
         <v>138099.91</v>
       </c>
+      <c r="J19" t="n">
+        <v>129246.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1047,6 +1106,9 @@
       <c r="I20" t="n">
         <v>264658.9</v>
       </c>
+      <c r="J20" t="n">
+        <v>265696.28</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1078,6 +1140,9 @@
       <c r="I21" t="n">
         <v>118037.94</v>
       </c>
+      <c r="J21" t="n">
+        <v>118483.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1109,6 +1174,9 @@
       <c r="I22" t="n">
         <v>6544.47</v>
       </c>
+      <c r="J22" t="n">
+        <v>6541.63</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1140,6 +1208,9 @@
       <c r="I23" t="n">
         <v>601.49</v>
       </c>
+      <c r="J23" t="n">
+        <v>583.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1171,6 +1242,9 @@
       <c r="I24" t="n">
         <v>43430.32</v>
       </c>
+      <c r="J24" t="n">
+        <v>43502.61</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1202,6 +1276,9 @@
       <c r="I25" t="n">
         <v>75090.48</v>
       </c>
+      <c r="J25" t="n">
+        <v>75566.53</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1233,6 +1310,9 @@
       <c r="I26" t="n">
         <v>69586.34</v>
       </c>
+      <c r="J26" t="n">
+        <v>69501.50999999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1264,6 +1344,9 @@
       <c r="I27" t="n">
         <v>11176.02</v>
       </c>
+      <c r="J27" t="n">
+        <v>11178.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1295,6 +1378,9 @@
       <c r="I28" t="n">
         <v>21998.43</v>
       </c>
+      <c r="J28" t="n">
+        <v>17098.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1326,6 +1412,9 @@
       <c r="I29" t="n">
         <v>15452.19</v>
       </c>
+      <c r="J29" t="n">
+        <v>15402.54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1356,6 +1445,9 @@
       </c>
       <c r="I30" t="n">
         <v>21968.94</v>
+      </c>
+      <c r="J30" t="n">
+        <v>21964.03</v>
       </c>
     </row>
     <row r="31">
@@ -1386,6 +1478,9 @@
       <c r="I31" t="n">
         <v>86364.94</v>
       </c>
+      <c r="J31" t="n">
+        <v>86656.17</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1417,6 +1512,9 @@
       <c r="I32" t="n">
         <v>125221</v>
       </c>
+      <c r="J32" t="n">
+        <v>125222.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1448,6 +1546,9 @@
       <c r="I33" t="n">
         <v>84071.67</v>
       </c>
+      <c r="J33" t="n">
+        <v>84099.72</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1479,6 +1580,9 @@
       <c r="I34" t="n">
         <v>83357.37</v>
       </c>
+      <c r="J34" t="n">
+        <v>83256.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1509,6 +1613,9 @@
       </c>
       <c r="I35" t="n">
         <v>253175.24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>254405.01</v>
       </c>
     </row>
     <row r="36">
@@ -1531,6 +1638,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1562,6 +1670,9 @@
       <c r="I37" t="n">
         <v>317541.71</v>
       </c>
+      <c r="J37" t="n">
+        <v>347350.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1592,6 +1703,9 @@
       </c>
       <c r="I38" t="n">
         <v>29976.35</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30009.18</v>
       </c>
     </row>
     <row r="39">
@@ -1614,6 +1728,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1760,9 @@
       <c r="I40" t="n">
         <v>95412.95</v>
       </c>
+      <c r="J40" t="n">
+        <v>94922.94</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1675,6 +1793,9 @@
       </c>
       <c r="I41" t="n">
         <v>3434866.17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3417225.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>67088.86</v>
       </c>
+      <c r="K2" t="n">
+        <v>55188.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>215067.41</v>
       </c>
+      <c r="K3" t="n">
+        <v>228835.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>33838.99</v>
       </c>
+      <c r="K4" t="n">
+        <v>33944.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>39662.95</v>
       </c>
+      <c r="K5" t="n">
+        <v>39718.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>102291.54</v>
       </c>
+      <c r="K6" t="n">
+        <v>102097.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>40201.95</v>
       </c>
+      <c r="K7" t="n">
+        <v>39410.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>964.46</v>
       </c>
+      <c r="K8" t="n">
+        <v>954.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>12930.51</v>
       </c>
+      <c r="K9" t="n">
+        <v>1529.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>3989.34</v>
       </c>
+      <c r="K10" t="n">
+        <v>4021.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>436206.33</v>
       </c>
+      <c r="K11" t="n">
+        <v>398738.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -852,6 +887,9 @@
       </c>
       <c r="J12" t="n">
         <v>396113.74</v>
+      </c>
+      <c r="K12" t="n">
+        <v>392253.27</v>
       </c>
     </row>
     <row r="13">
@@ -885,6 +923,9 @@
       <c r="J13" t="n">
         <v>39690.75</v>
       </c>
+      <c r="K13" t="n">
+        <v>39633.89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -917,6 +958,9 @@
       <c r="J14" t="n">
         <v>67260.89</v>
       </c>
+      <c r="K14" t="n">
+        <v>67407.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>1577.54</v>
       </c>
+      <c r="K15" t="n">
+        <v>1578.84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -981,6 +1028,9 @@
       <c r="J16" t="n">
         <v>5271.12</v>
       </c>
+      <c r="K16" t="n">
+        <v>5270.94</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1013,6 +1063,9 @@
       <c r="J17" t="n">
         <v>22362.49</v>
       </c>
+      <c r="K17" t="n">
+        <v>21582.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1045,6 +1098,9 @@
       <c r="J18" t="n">
         <v>146944.5</v>
       </c>
+      <c r="K18" t="n">
+        <v>147358.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1077,6 +1133,9 @@
       <c r="J19" t="n">
         <v>129246.05</v>
       </c>
+      <c r="K19" t="n">
+        <v>129627.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1109,6 +1168,9 @@
       <c r="J20" t="n">
         <v>265696.28</v>
       </c>
+      <c r="K20" t="n">
+        <v>260460.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1143,6 +1205,9 @@
       <c r="J21" t="n">
         <v>118483.4</v>
       </c>
+      <c r="K21" t="n">
+        <v>118431.26</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1177,6 +1242,9 @@
       <c r="J22" t="n">
         <v>6541.63</v>
       </c>
+      <c r="K22" t="n">
+        <v>6517.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1211,6 +1279,9 @@
       <c r="J23" t="n">
         <v>583.02</v>
       </c>
+      <c r="K23" t="n">
+        <v>606.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1245,6 +1316,9 @@
       <c r="J24" t="n">
         <v>43502.61</v>
       </c>
+      <c r="K24" t="n">
+        <v>43380.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1279,6 +1353,9 @@
       <c r="J25" t="n">
         <v>75566.53</v>
       </c>
+      <c r="K25" t="n">
+        <v>70618.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1313,6 +1390,9 @@
       <c r="J26" t="n">
         <v>69501.50999999999</v>
       </c>
+      <c r="K26" t="n">
+        <v>69583.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1347,6 +1427,9 @@
       <c r="J27" t="n">
         <v>11178.1</v>
       </c>
+      <c r="K27" t="n">
+        <v>11192.65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1381,6 +1464,9 @@
       <c r="J28" t="n">
         <v>17098.27</v>
       </c>
+      <c r="K28" t="n">
+        <v>17033.89</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1415,6 +1501,9 @@
       <c r="J29" t="n">
         <v>15402.54</v>
       </c>
+      <c r="K29" t="n">
+        <v>15477.87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1448,6 +1537,9 @@
       </c>
       <c r="J30" t="n">
         <v>21964.03</v>
+      </c>
+      <c r="K30" t="n">
+        <v>21935.33</v>
       </c>
     </row>
     <row r="31">
@@ -1481,6 +1573,9 @@
       <c r="J31" t="n">
         <v>86656.17</v>
       </c>
+      <c r="K31" t="n">
+        <v>86527.49000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1515,6 +1610,9 @@
       <c r="J32" t="n">
         <v>125222.36</v>
       </c>
+      <c r="K32" t="n">
+        <v>124929.47</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1549,6 +1647,9 @@
       <c r="J33" t="n">
         <v>84099.72</v>
       </c>
+      <c r="K33" t="n">
+        <v>84468.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1583,6 +1684,9 @@
       <c r="J34" t="n">
         <v>83256.03</v>
       </c>
+      <c r="K34" t="n">
+        <v>83146.63</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1616,6 +1720,9 @@
       </c>
       <c r="J35" t="n">
         <v>254405.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>253964.63</v>
       </c>
     </row>
     <row r="36">
@@ -1639,6 +1746,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1673,6 +1781,9 @@
       <c r="J37" t="n">
         <v>347350.09</v>
       </c>
+      <c r="K37" t="n">
+        <v>354169.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1706,6 +1817,9 @@
       </c>
       <c r="J38" t="n">
         <v>30009.18</v>
+      </c>
+      <c r="K38" t="n">
+        <v>30000.9</v>
       </c>
     </row>
     <row r="39">
@@ -1729,6 +1843,7 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1763,6 +1878,9 @@
       <c r="J40" t="n">
         <v>94922.94</v>
       </c>
+      <c r="K40" t="n">
+        <v>93377.67999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1796,6 +1914,9 @@
       </c>
       <c r="J41" t="n">
         <v>3417225.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3361596.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>55188.78</v>
       </c>
+      <c r="L2" t="n">
+        <v>41884.36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>228835.27</v>
       </c>
+      <c r="L3" t="n">
+        <v>229357.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>33944.59</v>
       </c>
+      <c r="L4" t="n">
+        <v>33951.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>39718.26</v>
       </c>
+      <c r="L5" t="n">
+        <v>39545.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>102097.85</v>
       </c>
+      <c r="L6" t="n">
+        <v>45843.94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>39410.88</v>
       </c>
+      <c r="L7" t="n">
+        <v>39449.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>954.61</v>
       </c>
+      <c r="L8" t="n">
+        <v>952.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>1529.37</v>
       </c>
+      <c r="L9" t="n">
+        <v>1533.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>4021.26</v>
       </c>
+      <c r="L10" t="n">
+        <v>4014.44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>398738.24</v>
       </c>
+      <c r="L11" t="n">
+        <v>312630.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -890,6 +925,9 @@
       </c>
       <c r="K12" t="n">
         <v>392253.27</v>
+      </c>
+      <c r="L12" t="n">
+        <v>391911.46</v>
       </c>
     </row>
     <row r="13">
@@ -926,6 +964,9 @@
       <c r="K13" t="n">
         <v>39633.89</v>
       </c>
+      <c r="L13" t="n">
+        <v>39158.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -961,6 +1002,9 @@
       <c r="K14" t="n">
         <v>67407.84</v>
       </c>
+      <c r="L14" t="n">
+        <v>67523.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>1578.84</v>
       </c>
+      <c r="L15" t="n">
+        <v>1577.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1031,6 +1078,9 @@
       <c r="K16" t="n">
         <v>5270.94</v>
       </c>
+      <c r="L16" t="n">
+        <v>5272.98</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1066,6 +1116,9 @@
       <c r="K17" t="n">
         <v>21582.22</v>
       </c>
+      <c r="L17" t="n">
+        <v>22442.64</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1101,6 +1154,9 @@
       <c r="K18" t="n">
         <v>147358.41</v>
       </c>
+      <c r="L18" t="n">
+        <v>123461.71</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1136,6 +1192,9 @@
       <c r="K19" t="n">
         <v>129627.78</v>
       </c>
+      <c r="L19" t="n">
+        <v>105846.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1171,6 +1230,9 @@
       <c r="K20" t="n">
         <v>260460.06</v>
       </c>
+      <c r="L20" t="n">
+        <v>257137.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1208,6 +1270,9 @@
       <c r="K21" t="n">
         <v>118431.26</v>
       </c>
+      <c r="L21" t="n">
+        <v>117778.57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1245,6 +1310,9 @@
       <c r="K22" t="n">
         <v>6517.62</v>
       </c>
+      <c r="L22" t="n">
+        <v>6442.94</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1282,6 +1350,9 @@
       <c r="K23" t="n">
         <v>606.02</v>
       </c>
+      <c r="L23" t="n">
+        <v>594.8200000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1319,6 +1390,9 @@
       <c r="K24" t="n">
         <v>43380.64</v>
       </c>
+      <c r="L24" t="n">
+        <v>38433.97</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1356,6 +1430,9 @@
       <c r="K25" t="n">
         <v>70618.67</v>
       </c>
+      <c r="L25" t="n">
+        <v>70531.78</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1393,6 +1470,9 @@
       <c r="K26" t="n">
         <v>69583.23</v>
       </c>
+      <c r="L26" t="n">
+        <v>69115.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1430,6 +1510,9 @@
       <c r="K27" t="n">
         <v>11192.65</v>
       </c>
+      <c r="L27" t="n">
+        <v>11183.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1467,6 +1550,9 @@
       <c r="K28" t="n">
         <v>17033.89</v>
       </c>
+      <c r="L28" t="n">
+        <v>17168.84</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1504,6 +1590,9 @@
       <c r="K29" t="n">
         <v>15477.87</v>
       </c>
+      <c r="L29" t="n">
+        <v>15455.62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1540,6 +1629,9 @@
       </c>
       <c r="K30" t="n">
         <v>21935.33</v>
+      </c>
+      <c r="L30" t="n">
+        <v>21945.63</v>
       </c>
     </row>
     <row r="31">
@@ -1576,6 +1668,9 @@
       <c r="K31" t="n">
         <v>86527.49000000001</v>
       </c>
+      <c r="L31" t="n">
+        <v>86561.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1613,6 +1708,9 @@
       <c r="K32" t="n">
         <v>124929.47</v>
       </c>
+      <c r="L32" t="n">
+        <v>125086.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1650,6 +1748,9 @@
       <c r="K33" t="n">
         <v>84468.42</v>
       </c>
+      <c r="L33" t="n">
+        <v>84213.21000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1687,6 +1788,9 @@
       <c r="K34" t="n">
         <v>83146.63</v>
       </c>
+      <c r="L34" t="n">
+        <v>83134.28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1723,6 +1827,9 @@
       </c>
       <c r="K35" t="n">
         <v>253964.63</v>
+      </c>
+      <c r="L35" t="n">
+        <v>255527.37</v>
       </c>
     </row>
     <row r="36">
@@ -1747,6 +1854,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1784,6 +1892,9 @@
       <c r="K37" t="n">
         <v>354169.4</v>
       </c>
+      <c r="L37" t="n">
+        <v>394928.98</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1820,6 +1931,9 @@
       </c>
       <c r="K38" t="n">
         <v>30000.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>30055.84</v>
       </c>
     </row>
     <row r="39">
@@ -1844,6 +1958,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1881,6 +1996,9 @@
       <c r="K40" t="n">
         <v>93377.67999999999</v>
       </c>
+      <c r="L40" t="n">
+        <v>88657.03999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1917,6 +2035,9 @@
       </c>
       <c r="K41" t="n">
         <v>3361596.48</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3191653.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>41884.36</v>
       </c>
+      <c r="M2" t="n">
+        <v>42035.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>229357.16</v>
       </c>
+      <c r="M3" t="n">
+        <v>229450.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>33951.14</v>
       </c>
+      <c r="M4" t="n">
+        <v>33938.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>39545.64</v>
       </c>
+      <c r="M5" t="n">
+        <v>39727.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>45843.94</v>
       </c>
+      <c r="M6" t="n">
+        <v>46096.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>39449.2</v>
       </c>
+      <c r="M7" t="n">
+        <v>39614.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>952.61</v>
       </c>
+      <c r="M8" t="n">
+        <v>905.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>1533.86</v>
       </c>
+      <c r="M9" t="n">
+        <v>1530.43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>4014.44</v>
       </c>
+      <c r="M10" t="n">
+        <v>4022.44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>312630.05</v>
       </c>
+      <c r="M11" t="n">
+        <v>238048.94</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -928,6 +963,9 @@
       </c>
       <c r="L12" t="n">
         <v>391911.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>382199.72</v>
       </c>
     </row>
     <row r="13">
@@ -967,6 +1005,9 @@
       <c r="L13" t="n">
         <v>39158.8</v>
       </c>
+      <c r="M13" t="n">
+        <v>38331.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1005,6 +1046,9 @@
       <c r="L14" t="n">
         <v>67523.8</v>
       </c>
+      <c r="M14" t="n">
+        <v>67668.21000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>1577.1</v>
       </c>
+      <c r="M15" t="n">
+        <v>1575.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1081,6 +1128,9 @@
       <c r="L16" t="n">
         <v>5272.98</v>
       </c>
+      <c r="M16" t="n">
+        <v>5277.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1119,6 +1169,9 @@
       <c r="L17" t="n">
         <v>22442.64</v>
       </c>
+      <c r="M17" t="n">
+        <v>21368.56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1157,6 +1210,9 @@
       <c r="L18" t="n">
         <v>123461.71</v>
       </c>
+      <c r="M18" t="n">
+        <v>105780.43</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1195,6 +1251,9 @@
       <c r="L19" t="n">
         <v>105846.31</v>
       </c>
+      <c r="M19" t="n">
+        <v>99847.61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1233,6 +1292,9 @@
       <c r="L20" t="n">
         <v>257137.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>251210.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1273,6 +1335,9 @@
       <c r="L21" t="n">
         <v>117778.57</v>
       </c>
+      <c r="M21" t="n">
+        <v>117965.78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1313,6 +1378,9 @@
       <c r="L22" t="n">
         <v>6442.94</v>
       </c>
+      <c r="M22" t="n">
+        <v>6544.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1353,6 +1421,9 @@
       <c r="L23" t="n">
         <v>594.8200000000001</v>
       </c>
+      <c r="M23" t="n">
+        <v>605.53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1393,6 +1464,9 @@
       <c r="L24" t="n">
         <v>38433.97</v>
       </c>
+      <c r="M24" t="n">
+        <v>38658.77</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1433,6 +1507,9 @@
       <c r="L25" t="n">
         <v>70531.78</v>
       </c>
+      <c r="M25" t="n">
+        <v>69997.47</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1473,6 +1550,9 @@
       <c r="L26" t="n">
         <v>69115.84</v>
       </c>
+      <c r="M26" t="n">
+        <v>60861.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1513,6 +1593,9 @@
       <c r="L27" t="n">
         <v>11183.08</v>
       </c>
+      <c r="M27" t="n">
+        <v>11183.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1553,6 +1636,9 @@
       <c r="L28" t="n">
         <v>17168.84</v>
       </c>
+      <c r="M28" t="n">
+        <v>17008.53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1593,6 +1679,9 @@
       <c r="L29" t="n">
         <v>15455.62</v>
       </c>
+      <c r="M29" t="n">
+        <v>15423.54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1632,6 +1721,9 @@
       </c>
       <c r="L30" t="n">
         <v>21945.63</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22011.66</v>
       </c>
     </row>
     <row r="31">
@@ -1671,6 +1763,9 @@
       <c r="L31" t="n">
         <v>86561.13</v>
       </c>
+      <c r="M31" t="n">
+        <v>86346.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1711,6 +1806,9 @@
       <c r="L32" t="n">
         <v>125086.88</v>
       </c>
+      <c r="M32" t="n">
+        <v>124814.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1751,6 +1849,9 @@
       <c r="L33" t="n">
         <v>84213.21000000001</v>
       </c>
+      <c r="M33" t="n">
+        <v>84316.57000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1791,6 +1892,9 @@
       <c r="L34" t="n">
         <v>83134.28</v>
       </c>
+      <c r="M34" t="n">
+        <v>80952.25999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1830,6 +1934,9 @@
       </c>
       <c r="L35" t="n">
         <v>255527.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>255395.5</v>
       </c>
     </row>
     <row r="36">
@@ -1855,6 +1962,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1895,6 +2003,9 @@
       <c r="L37" t="n">
         <v>394928.98</v>
       </c>
+      <c r="M37" t="n">
+        <v>423707.82</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1934,6 +2045,9 @@
       </c>
       <c r="L38" t="n">
         <v>30055.84</v>
+      </c>
+      <c r="M38" t="n">
+        <v>30043.85</v>
       </c>
     </row>
     <row r="39">
@@ -1959,6 +2073,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1999,6 +2114,9 @@
       <c r="L40" t="n">
         <v>88657.03999999999</v>
       </c>
+      <c r="M40" t="n">
+        <v>85957.39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2038,6 +2156,9 @@
       </c>
       <c r="L41" t="n">
         <v>3191653.28</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3094466.19</v>
       </c>
     </row>
   </sheetData>
